--- a/TestData/NOCData.xlsx
+++ b/TestData/NOCData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoudhary\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SandeepJavaWorkspace\NOC\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724DCED9-EC8A-4A13-B35C-A5B3F84F2E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7871EE3-8CCC-4280-8A90-72AF4C1CC1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8D8F71BC-8AEC-4074-A40B-0B121D486586}"/>
+    <workbookView minimized="1" xWindow="-1200" yWindow="1170" windowWidth="21600" windowHeight="10395" xr2:uid="{8D8F71BC-8AEC-4074-A40B-0B121D486586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,31 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>devtest@smartac.com</t>
-  </si>
-  <si>
-    <t>password123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000188</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000169</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000454</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000459</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000158</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000358</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000176</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000278</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1A1X003727</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000625</t>
+  </si>
+  <si>
+    <t>SMARTACHUB1E1X000647</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,13 +115,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,32 +454,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1599A-E441-4CD1-83E7-43D08E6775C4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
